--- a/TESTE_MEDICAO.xlsx
+++ b/TESTE_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{867D8458-4880-4714-A906-F1FED23A1D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB914702-EDF6-48FB-8AFA-6A149D5E9762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9892E9B5-7FF6-4555-93A7-2559C0821235}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>DATA PAGTO</t>
   </si>
   <si>
-    <t>OBSERVAÇÃO</t>
-  </si>
-  <si>
     <t>protocolo</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>034/2022</t>
+  </si>
+  <si>
+    <t>OBSERVACAO</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H33"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,15 +458,15 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -579,12 +579,12 @@
         <v>45457</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -605,12 +605,12 @@
         <v>45475</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -631,12 +631,12 @@
         <v>45513</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -657,12 +657,12 @@
         <v>45552</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -683,12 +683,12 @@
         <v>45573</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>14</v>

--- a/TESTE_MEDICAO.xlsx
+++ b/TESTE_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB914702-EDF6-48FB-8AFA-6A149D5E9762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9A3F4B-E93F-4836-80DA-B32DEDB0DFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9892E9B5-7FF6-4555-93A7-2559C0821235}"/>
   </bookViews>
@@ -422,17 +422,19 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/TESTE_MEDICAO.xlsx
+++ b/TESTE_MEDICAO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1536,10 +1536,8 @@
           <t>009/2022</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="B38" t="n">
+        <v>11</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1551,10 +1549,8 @@
           <t>1000000</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>1050</t>
-        </is>
+      <c r="E38" t="n">
+        <v>1050</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1571,7 +1567,36 @@
           <t>Construção da ETE</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I38" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>007/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>584000</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
         <is>
           <t>1500</t>
         </is>

--- a/TESTE_MEDICAO.xlsx
+++ b/TESTE_MEDICAO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,8 +498,10 @@
           <t>2024-07-10 00:00:00</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>117383.14</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>117383.14</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>5679</v>
@@ -527,8 +529,10 @@
           <t>2024-08-04 00:00:00</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>102223.16</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102223.16</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>5694</v>
@@ -556,8 +560,10 @@
           <t>2024-09-15 00:00:00</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>350615.04</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>350615.04</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>5740</v>
@@ -585,8 +591,10 @@
           <t>2024-10-15 00:00:00</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>282653.1</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>282653.1</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>5771</v>
@@ -614,8 +622,10 @@
           <t>15/12/2025</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>584000</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584000</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>5000</v>
@@ -627,6 +637,35 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>007/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>145000,56</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1452</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>14500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TESTE_MEDICAO.xlsx
+++ b/TESTE_MEDICAO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,6 +666,33 @@
         <v>14500</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>007/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>80000,20</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1542</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
